--- a/data/trans_dic/P36B13_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Provincia-trans_dic.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,34; 20,31</t>
+          <t>11,35; 20,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 18,44</t>
+          <t>10,51; 18,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 17,88</t>
+          <t>11,84; 17,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,39; 16,59</t>
+          <t>10,67; 16,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,95</t>
+          <t>1,83; 6,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 10,04</t>
+          <t>5,48; 10,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,98</t>
+          <t>1,31; 3,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,76; 12,58</t>
+          <t>8,64; 12,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,52</t>
+          <t>1,86; 4,57</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 23,05</t>
+          <t>15,46; 24,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,13</t>
+          <t>2,29; 7,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 13,59</t>
+          <t>7,24; 13,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,53</t>
+          <t>2,17; 6,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,24; 17,68</t>
+          <t>12,16; 17,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,81</t>
+          <t>2,83; 5,74</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,38; 16,35</t>
+          <t>9,29; 16,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 10,24</t>
+          <t>2,22; 10,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,64</t>
+          <t>3,59; 8,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,74</t>
+          <t>0,66; 2,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,42</t>
+          <t>7,13; 11,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,05</t>
+          <t>1,71; 4,95</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,86; 14,22</t>
+          <t>5,85; 13,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,87</t>
+          <t>0,62; 3,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 8,71</t>
+          <t>2,56; 8,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,38</t>
+          <t>0,2; 2,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 9,75</t>
+          <t>5,05; 10,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,35</t>
+          <t>0,62; 2,45</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,49</t>
+          <t>3,97; 9,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,21</t>
+          <t>1,68; 6,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,93</t>
+          <t>1,65; 6,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 3,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,78</t>
+          <t>3,16; 7,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,95</t>
+          <t>1,02; 3,92</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 11,13</t>
+          <t>6,39; 10,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,54; 13,64</t>
+          <t>7,36; 13,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,11</t>
+          <t>3,65; 7,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,07</t>
+          <t>2,33; 5,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,49</t>
+          <t>5,63; 8,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,68</t>
+          <t>4,74; 8,66</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,69; 16,61</t>
+          <t>11,6; 16,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,75; 36,06</t>
+          <t>14,61; 38,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,39; 12,8</t>
+          <t>8,43; 12,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,81</t>
+          <t>6,62; 10,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,66; 13,88</t>
+          <t>10,64; 13,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,19; 24,66</t>
+          <t>11,21; 24,11</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,42; 13,66</t>
+          <t>11,3; 13,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,98</t>
+          <t>7,12; 14,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,01; 8,73</t>
+          <t>6,94; 8,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,62</t>
+          <t>3,12; 4,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,39; 10,82</t>
+          <t>9,44; 10,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,17</t>
+          <t>5,27; 9,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B13_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Provincia-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,35; 20,08</t>
+          <t>11,32; 20,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,51; 18,26</t>
+          <t>10,45; 18,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 17,79</t>
+          <t>11,99; 17,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 16,45</t>
+          <t>10,62; 16,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 10,05</t>
+          <t>5,54; 10,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,56</t>
+          <t>8,74; 12,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,46; 24,3</t>
+          <t>15,26; 23,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 13,26</t>
+          <t>7,36; 14,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,16; 17,09</t>
+          <t>11,93; 17,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 16,13</t>
+          <t>9,63; 16,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,4</t>
+          <t>3,54; 8,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,55</t>
+          <t>7,16; 11,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,85; 13,99</t>
+          <t>6,14; 14,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 8,36</t>
+          <t>2,67; 8,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 10,27</t>
+          <t>4,99; 9,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,97; 9,71</t>
+          <t>3,66; 9,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,05</t>
+          <t>1,63; 6,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,0</t>
+          <t>3,21; 6,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,39; 10,87</t>
+          <t>6,27; 10,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,04</t>
+          <t>3,62; 7,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,36</t>
+          <t>5,42; 8,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,6; 16,45</t>
+          <t>11,71; 16,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,64</t>
+          <t>8,25; 12,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,64; 13,9</t>
+          <t>10,47; 13,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,3; 13,62</t>
+          <t>11,32; 13,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,88</t>
+          <t>6,98; 8,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,44; 10,86</t>
+          <t>9,36; 10,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">

--- a/data/trans_dic/P36B13_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,32; 20,02</t>
+          <t>11,34; 20,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,45; 18,59</t>
+          <t>10,4; 18,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,99; 17,79</t>
+          <t>11,72; 17,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 16,71</t>
+          <t>10,39; 16,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,79</t>
+          <t>1,82; 6,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 10,24</t>
+          <t>5,51; 10,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,97</t>
+          <t>1,36; 3,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,74; 12,52</t>
+          <t>8,76; 12,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,57</t>
+          <t>1,94; 4,52</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,26; 23,53</t>
+          <t>14,9; 23,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,41</t>
+          <t>2,27; 7,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 14,1</t>
+          <t>7,32; 13,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,24</t>
+          <t>2,36; 6,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,93; 17,23</t>
+          <t>12,24; 17,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,74</t>
+          <t>2,72; 5,81</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 16,72</t>
+          <t>9,38; 16,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 10,02</t>
+          <t>2,35; 10,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,39</t>
+          <t>3,69; 8,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,78</t>
+          <t>0,65; 2,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,16; 11,32</t>
+          <t>7,12; 11,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,95</t>
+          <t>1,62; 5,05</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,14; 14,57</t>
+          <t>5,86; 14,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,93</t>
+          <t>0,61; 3,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,03</t>
+          <t>2,46; 8,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,26</t>
+          <t>0,32; 2,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 9,73</t>
+          <t>4,94; 9,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,45</t>
+          <t>0,56; 2,35</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,29</t>
+          <t>3,72; 9,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,94</t>
+          <t>1,58; 7,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,43</t>
+          <t>1,41; 5,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,3</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,79</t>
+          <t>3,09; 6,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,92</t>
+          <t>0,97; 3,95</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 10,87</t>
+          <t>6,45; 11,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,36; 13,44</t>
+          <t>7,54; 13,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,3</t>
+          <t>3,78; 7,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,93</t>
+          <t>2,32; 6,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,18</t>
+          <t>5,62; 8,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,66</t>
+          <t>4,89; 8,68</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,71; 16,58</t>
+          <t>11,69; 16,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,61; 38,28</t>
+          <t>14,75; 36,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,71</t>
+          <t>8,39; 12,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,62; 10,78</t>
+          <t>6,55; 10,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,47; 13,92</t>
+          <t>10,66; 13,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,21; 24,11</t>
+          <t>11,19; 24,66</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,32; 13,51</t>
+          <t>11,42; 13,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,12; 14,37</t>
+          <t>7,17; 14,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,98; 8,87</t>
+          <t>7,01; 8,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,12; 4,53</t>
+          <t>3,16; 4,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,36; 10,78</t>
+          <t>9,39; 10,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,19</t>
+          <t>5,35; 9,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B13_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Provincia-trans_dic.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,26%</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,15%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,95</t>
+          <t>1,9; 7,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,98</t>
+          <t>1,36; 4,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,52</t>
+          <t>1,98; 4,72</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,13</t>
+          <t>2,26; 7,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,53</t>
+          <t>2,41; 6,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,81</t>
+          <t>2,77; 5,92</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 10,24</t>
+          <t>2,37; 10,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,74</t>
+          <t>0,48; 2,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,05</t>
+          <t>1,44; 4,89</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,87</t>
+          <t>0,62; 3,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,38</t>
+          <t>0,33; 2,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,35</t>
+          <t>0,55; 2,35</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,03%</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,21</t>
+          <t>1,54; 7,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,95</t>
+          <t>0,97; 3,92</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,5%</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,54; 13,64</t>
+          <t>7,66; 14,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,07</t>
+          <t>1,57; 5,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,68</t>
+          <t>4,06; 8,58</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>37,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>24,86%</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,75; 36,06</t>
+          <t>14,73; 69,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,81</t>
+          <t>6,35; 10,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,19; 24,66</t>
+          <t>11,07; 53,45</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>8,49%</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,98</t>
+          <t>6,92; 36,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,62</t>
+          <t>2,82; 4,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,17</t>
+          <t>5,07; 21,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B13_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,7 +592,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,7 +640,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,34; 20,31</t>
+          <t>10,84; 19,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,29 +650,29 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 18,44</t>
+          <t>10,78; 18,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 17,88</t>
+          <t>11,82; 17,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,39 +720,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,39; 16,59</t>
+          <t>10,51; 16,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,34</t>
+          <t>1,85; 7,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 10,04</t>
+          <t>5,66; 10,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,0</t>
+          <t>1,45; 4,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,76; 12,58</t>
+          <t>8,69; 12,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,72</t>
+          <t>1,99; 4,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 23,05</t>
+          <t>15,33; 23,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,19</t>
+          <t>2,5; 7,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 13,59</t>
+          <t>7,18; 13,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,63</t>
+          <t>2,37; 6,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,24; 17,68</t>
+          <t>11,94; 17,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,92</t>
+          <t>2,84; 6,15</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,38; 16,35</t>
+          <t>9,5; 16,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 10,49</t>
+          <t>2,44; 10,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,64</t>
+          <t>3,79; 8,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,33</t>
+          <t>0,5; 2,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,42</t>
+          <t>7,15; 11,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,89</t>
+          <t>1,57; 5,06</t>
         </is>
       </c>
     </row>
@@ -959,39 +960,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,86; 14,22</t>
+          <t>6,1; 13,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,89</t>
+          <t>0,62; 3,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 8,71</t>
+          <t>2,41; 8,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,37</t>
+          <t>0,33; 2,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 9,75</t>
+          <t>4,81; 9,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,35</t>
+          <t>0,58; 2,36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1039,39 +1040,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,49</t>
+          <t>3,7; 9,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 7,05</t>
+          <t>1,56; 6,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,93</t>
+          <t>1,57; 6,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,79</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,78</t>
+          <t>3,14; 6,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,92</t>
+          <t>0,97; 4,17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 11,13</t>
+          <t>6,28; 10,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,66; 14,27</t>
+          <t>7,34; 14,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,11</t>
+          <t>3,67; 6,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,67</t>
+          <t>1,47; 5,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,49</t>
+          <t>5,45; 8,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,58</t>
+          <t>4,04; 8,73</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1200,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,69; 16,61</t>
+          <t>11,8; 16,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,73; 69,82</t>
+          <t>14,32; 72,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,39; 12,8</t>
+          <t>8,32; 12,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,35; 10,3</t>
+          <t>6,43; 10,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,66; 13,88</t>
+          <t>10,62; 13,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,07; 53,45</t>
+          <t>11,25; 53,62</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1280,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,42; 13,66</t>
+          <t>11,34; 13,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,92; 36,75</t>
+          <t>6,79; 33,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,01; 8,73</t>
+          <t>6,95; 8,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,2</t>
+          <t>2,76; 4,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,39; 10,82</t>
+          <t>9,45; 10,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,07; 21,91</t>
+          <t>4,95; 19,7</t>
         </is>
       </c>
     </row>
@@ -1333,4 +1334,1190 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume comida rápida al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>44563</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>40952</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>85514</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>31684; 57343</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1801</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>31134; 53561</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8265</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>68685; 103487</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7956</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>67597</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20123</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>40097</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12395</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>107695</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32519</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>52807; 83650</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9601; 40420</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29550; 53297</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7471; 21527</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>88983; 127530</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20485; 50544</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>60666</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13403</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>33953</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13918</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>94619</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27320</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>48395; 72883</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7794; 23271</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>24132; 45577</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8125; 22408</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>77822; 111547</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18595; 40310</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>46496</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15821</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21935</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5852</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>68431</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>21673</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>35063; 60246</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7629; 31762</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14530; 33357</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2386; 11382</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>53740; 85324</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12366; 39898</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>19922</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2971</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10418</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1841</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>30340</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4812</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12827; 28688</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1112; 6568</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5241; 17756</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>678; 5112</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>20578; 41863</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2244; 9105</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16449</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9289</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9060</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1406</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>25509</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10694</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>9747; 25964</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4218; 18709</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4274; 16991</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7925</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>16860; 36301</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5117; 21962</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>54704</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>64822</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>34864</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>30849</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>89567</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>95671</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>40435; 70223</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>45853; 89827</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>24958; 47064</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>12484; 47680</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>72089; 109367</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>59435; 128535</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>108539</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>350833</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>85024</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>58491</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>193563</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>409324</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>91758; 130957</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>132960; 670159</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>68247; 104041</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>46117; 74706</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>169641; 221327</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>185233; 882817</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>418936</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>477261</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>276303</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>126318</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>695239</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>603580</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>382726; 461225</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>234801; 1142864</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>244622; 308418</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>100909; 150807</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>651861; 746544</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>351851; 1400428</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>